--- a/Physik/Praktikum/Versuch Elektrische Eigenschaften/Ergebnisse.xlsx
+++ b/Physik/Praktikum/Versuch Elektrische Eigenschaften/Ergebnisse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/moritz_wieland_bwedu_de/Documents/Module/Physik/Praktikum/Versuch Elektrische Eigenschaften/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277C1185-F22B-254D-8F1F-2B3B000C74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{277C1185-F22B-254D-8F1F-2B3B000C74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6CB115-B829-6945-B3D5-0DDB06016760}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{57F300C8-28CB-434C-B0CF-23D8ECE7AE5E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{57F300C8-28CB-434C-B0CF-23D8ECE7AE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +35,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+  <si>
+    <t>U (V)</t>
+  </si>
+  <si>
+    <t>I (mA)</t>
+  </si>
+  <si>
+    <t>R (geg.) = 1kOhm</t>
+  </si>
+  <si>
+    <t>P = U * I</t>
+  </si>
+  <si>
+    <t>R (Ohm)</t>
+  </si>
+  <si>
+    <t>Versuch 1</t>
+  </si>
+  <si>
+    <t>Versuch 2</t>
+  </si>
+  <si>
+    <t>I1 (mA)</t>
+  </si>
+  <si>
+    <t>I2 (mA)</t>
+  </si>
+  <si>
+    <t>R1 (Ohm)</t>
+  </si>
+  <si>
+    <t>R2 (Ohm)</t>
+  </si>
+  <si>
+    <t>R3 (Ohm)</t>
+  </si>
+  <si>
+    <t>U3 (V)</t>
+  </si>
+  <si>
+    <t>I3 (mA)</t>
+  </si>
+  <si>
+    <t>U1 (V)</t>
+  </si>
+  <si>
+    <t>U2 (V)</t>
+  </si>
+  <si>
+    <t>Versuch 3</t>
+  </si>
+  <si>
+    <t>Amlitude (V)</t>
+  </si>
+  <si>
+    <t>Periode T (mu s)</t>
+  </si>
+  <si>
+    <t>f geg (kHz)</t>
+  </si>
+  <si>
+    <t>Periode T (s)</t>
+  </si>
+  <si>
+    <t>Frequenz f (Hz)</t>
+  </si>
+  <si>
+    <t>Delta T (mu s)</t>
+  </si>
+  <si>
+    <t>Delta Amp (V)</t>
+  </si>
+  <si>
+    <t>Fehler: (Hz)</t>
+  </si>
+  <si>
+    <t>Versuch 4</t>
+  </si>
+  <si>
+    <t>t (ms)</t>
+  </si>
+  <si>
+    <t>Amp (V)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>5,9*10^(-17,81x)</t>
+  </si>
+  <si>
+    <t>I (A)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>Farad</t>
+  </si>
+  <si>
+    <t>P (mW)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,12 +185,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +326,1972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0A1A-2244-9DEE-6E7F70C6A2C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-0A1A-2244-9DEE-6E7F70C6A2C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1321973488"/>
+        <c:axId val="1321988304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1321973488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321988304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1321988304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321973488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R (Ohm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384.61538461538458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>441.1764705882353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.82051282051282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>701.75438596491222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821.91780821917814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>919.54022988505756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1061.9469026548672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1129.0322580645161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1185.1851851851852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1241.3793103448277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1290.3225806451612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3059-B849-BEB8-7CCC258B24D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R (Ohm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1016.9491525423729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1025.6410256410256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1020.408163265306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1016.9491525423729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1021.8978102189782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1019.1082802547771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1016.9491525423729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1015.2284263959391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3059-B849-BEB8-7CCC258B24D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="856438736"/>
+        <c:axId val="847734704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="856438736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847734704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847734704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856438736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amp (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11512401574803149"/>
+                  <c:y val="-0.12415135608048994"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1658-B34E-A03E-BF4846692D74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="853654608"/>
+        <c:axId val="853860160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="853654608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853860160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="853860160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853654608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317F00FB-92EF-B074-CCAC-B5A39E1031A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3F00D0-C8B0-A501-0CF6-B639A1905678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76013B9-445D-0A18-3985-13A7C57D7A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,14 +2591,1271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F3C6DA-1ADF-E449-96E0-65500698CC94}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="e">
+        <f>(B3*1000)/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3">
+        <f>H3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="e">
+        <f>(H3*1000)/I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A16" si="0">B4*C4</f>
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D16" si="1">(B4*1000)/C4</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G16" si="2">H4*I4</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J16" si="3">(H4*1000)/I4</f>
+        <v>1000</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>384.61538461538458</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>441.1764705882353</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>512.82051282051282</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>701.75438596491222</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>43.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>821.91780821917814</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>35.400000000000006</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>1016.9491525423729</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>919.54022988505756</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>62.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>1025.6410256410256</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>1020.408163265306</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>135.60000000000002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>1061.9469026548672</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>141.60000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>1016.9491525423729</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>173.6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>1129.0322580645161</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>191.79999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>1021.8978102189782</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1185.1851851851852</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>251.2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1019.1082802547771</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1241.3793103448277</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>318.59999999999997</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>1016.9491525423729</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1290.3225806451612</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>1015.2284263959391</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="B45" s="1">
+        <f>A45-C45</f>
+        <v>2.41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D45" s="1">
+        <f>A45</f>
+        <v>3.81</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <f>(E45-H45)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G45" s="1">
+        <f>(E45-H45)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" ref="I45:K46" si="4">(F45*1000)/B45</f>
+        <v>497.92531120331955</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="4"/>
+        <v>857.14285714285734</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="4"/>
+        <v>997.37532808398953</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>10</v>
+      </c>
+      <c r="B46" s="10">
+        <f>A46-C46</f>
+        <v>6.1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="D46" s="10">
+        <f>A46</f>
+        <v>10</v>
+      </c>
+      <c r="E46" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="F46" s="10">
+        <f>(E46-H46)</f>
+        <v>3.26</v>
+      </c>
+      <c r="G46" s="10">
+        <f>(E46-H46)</f>
+        <v>3.26</v>
+      </c>
+      <c r="H46" s="6">
+        <v>10.14</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="4"/>
+        <v>534.4262295081968</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="4"/>
+        <v>835.89743589743591</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="4"/>
+        <v>1014</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="23"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C50" s="16">
+        <v>25</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="14">
+        <f>C50*10^(-9)</f>
+        <v>2.5000000000000002E-8</v>
+      </c>
+      <c r="F50" s="12">
+        <f>1/E50</f>
+        <v>40000000</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="12">
+        <f>(1/(E50^2))*C53*10^(-9)</f>
+        <v>1599999.9999999998</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16">
+        <v>400</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="14">
+        <f>C51*10^(-9)</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="F51" s="12">
+        <f>1/E51</f>
+        <v>2500000</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12">
+        <f>(1/(E51^2))*C54*10^(-9)</f>
+        <v>124999.99999999999</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C54" s="17">
+        <v>20</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="15">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15">
+        <v>6.48</v>
+      </c>
+      <c r="D58" s="24">
+        <f>C58/$E$58</f>
+        <v>6.480000000000001E-2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>100</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C59" s="15">
+        <v>4.08</v>
+      </c>
+      <c r="D59" s="24">
+        <f t="shared" ref="D59:D65" si="5">C59/$E$58</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C60" s="15">
+        <v>2.56</v>
+      </c>
+      <c r="D60" s="24">
+        <f t="shared" si="5"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" s="15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1.36</v>
+      </c>
+      <c r="D61" s="24">
+        <f t="shared" si="5"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" s="15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="D62" s="24">
+        <f t="shared" si="5"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="D63" s="24">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" s="15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D64" s="24">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="D65" s="24">
+        <f t="shared" si="5"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <f>((-B61)/(LN((D61)/(D58))))/(100)</f>
+        <v>4.6757830882182208E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <f>1/(17.81*1000)</f>
+        <v>5.6148231330713081E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <f>B70/E58</f>
+        <v>5.6148231330713081E-7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A56:R56"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Physik/Praktikum/Versuch Elektrische Eigenschaften/Ergebnisse.xlsx
+++ b/Physik/Praktikum/Versuch Elektrische Eigenschaften/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/moritz_wieland_bwedu_de/Documents/Module/Physik/Praktikum/Versuch Elektrische Eigenschaften/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="8_{277C1185-F22B-254D-8F1F-2B3B000C74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6CB115-B829-6945-B3D5-0DDB06016760}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="8_{277C1185-F22B-254D-8F1F-2B3B000C74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692F95A7-603A-E642-ABD3-A55490580FD1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{57F300C8-28CB-434C-B0CF-23D8ECE7AE5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>U (V)</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>P (mW)</t>
+  </si>
+  <si>
+    <t>Glühbrine</t>
+  </si>
+  <si>
+    <t>Widerstand</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -286,6 +292,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,7 +317,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,18 +368,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I (mA)</c:v>
+                  <c:v>Glühbrine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$16</c:f>
+              <c:f>Sheet1!$B$4:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -415,7 +430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$16</c:f>
+              <c:f>Sheet1!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -476,11 +491,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I (mA)</c:v>
+                  <c:v>Widerstand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -490,7 +505,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$16</c:f>
+              <c:f>Sheet1!$H$4:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -541,7 +556,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$16</c:f>
+              <c:f>Sheet1!$I$4:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -629,6 +644,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spannung in V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -677,6 +710,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Stromstärke</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -719,6 +774,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -756,37 +815,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -797,18 +826,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R (Ohm)</c:v>
+                  <c:v>Glühbrine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$16</c:f>
+              <c:f>Sheet1!$A$4:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -859,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$16</c:f>
+              <c:f>Sheet1!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -920,11 +949,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R (Ohm)</c:v>
+                  <c:v>Widerstand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,7 +984,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$16</c:f>
+              <c:f>Sheet1!$G$4:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1006,7 +1035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$16</c:f>
+              <c:f>Sheet1!$J$4:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1094,6 +1123,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Leistung in mW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1156,6 +1203,29 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Widerstand</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in Ohm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1198,6 +1268,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1235,37 +1309,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1276,7 +1320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$57</c:f>
+              <c:f>Sheet1!$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1361,7 +1405,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$B$65</c:f>
+              <c:f>Sheet1!$B$59:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1394,7 +1438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$65</c:f>
+              <c:f>Sheet1!$C$59:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1464,6 +1508,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Zeit in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1526,6 +1625,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spannung in V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1575,6 +1729,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2181,13 +2366,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2217,15 +2402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>204491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>715182</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2255,13 +2440,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2591,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F3C6DA-1ADF-E449-96E0-65500698CC94}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D65"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2606,146 +2791,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>2</v>
-      </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <f>B3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="e">
-        <f>(B3*1000)/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3">
-        <f>H3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="e">
-        <f>(H3*1000)/I3</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A16" si="0">B4*C4</f>
-        <v>0.7</v>
+        <f>B4*C4</f>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D16" si="1">(B4*1000)/C4</f>
-        <v>357.14285714285717</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="e">
+        <f>(B4*1000)/C4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G16" si="2">H4*I4</f>
-        <v>0.25</v>
+        <f>H4*I4</f>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J16" si="3">(H4*1000)/I4</f>
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="e">
+        <f>(H4*1000)/I4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
+        <f t="shared" ref="A5:A17" si="0">B5*C5</f>
+        <v>0.7</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="1">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>384.61538461538458</v>
+        <f t="shared" ref="D5:D17" si="1">(B5*1000)/C5</f>
+        <v>357.14285714285717</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="G5:G17" si="2">H5*I5</f>
+        <v>0.25</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J5:J17" si="3">(H5*1000)/I5</f>
         <v>1000</v>
       </c>
       <c r="R5" s="3"/>
@@ -2753,27 +2933,27 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="B6" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>441.1764705882353</v>
+        <v>384.61538461538458</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="3"/>
@@ -2784,27 +2964,27 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="1">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>512.82051282051282</v>
+        <v>441.1764705882353</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="3"/>
@@ -2815,27 +2995,27 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>22.8</v>
+        <v>7.8</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>701.75438596491222</v>
+        <v>512.82051282051282</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
@@ -2846,256 +3026,280 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>43.8</v>
+        <v>22.8</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>821.91780821917814</v>
+        <v>701.75438596491222</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>35.400000000000006</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>1016.9491525423729</v>
+        <v>1000</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>69.599999999999994</v>
+        <v>43.8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>919.54022988505756</v>
+        <v>821.91780821917814</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>62.4</v>
+        <v>35.400000000000006</v>
       </c>
       <c r="H10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>1025.6410256410256</v>
+        <v>1016.9491525423729</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>919.54022988505756</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>62.4</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1">
-        <v>9.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>1020.408163265306</v>
+        <v>1025.6410256410256</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>135.60000000000002</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>1061.9469026548672</v>
+        <v>1000</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>141.60000000000002</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>11.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>1016.9491525423729</v>
+        <v>1020.408163265306</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>173.6</v>
+        <v>135.60000000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4</v>
+        <v>11.3</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>1129.0322580645161</v>
+        <v>1061.9469026548672</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>191.79999999999998</v>
+        <v>141.60000000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
-        <v>13.7</v>
+        <v>11.8</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>1021.8978102189782</v>
+        <v>1016.9491525423729</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>173.6</v>
       </c>
       <c r="B14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>1185.1851851851852</v>
+        <v>1129.0322580645161</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>251.2</v>
+        <v>191.79999999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>1019.1082802547771</v>
+        <v>1021.8978102189782</v>
       </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>1241.3793103448277</v>
+        <v>1185.1851851851852</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>318.59999999999997</v>
+        <v>251.2</v>
       </c>
       <c r="H15" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1">
-        <v>17.7</v>
+        <v>15.7</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>1016.9491525423729</v>
+        <v>1019.1082802547771</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>1290.3225806451612</v>
+        <v>1241.3793103448277</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>394</v>
+        <v>318.59999999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>19.7</v>
+        <v>17.7</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
+        <v>1016.9491525423729</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1290.3225806451612</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
         <v>1015.2284263959391</v>
       </c>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -3205,6 +3409,9 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -3235,426 +3442,407 @@
       <c r="A40" s="2"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>12</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>10</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>3.81</v>
       </c>
-      <c r="B45" s="1">
-        <f>A45-C45</f>
+      <c r="B46" s="1">
+        <f>A46-C46</f>
         <v>2.41</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>1.4</v>
       </c>
-      <c r="D45" s="1">
-        <f>A45</f>
+      <c r="D46" s="1">
+        <f>A46</f>
         <v>3.81</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
-        <f>(E45-H45)</f>
+      <c r="F46" s="1">
+        <f>(E46-H46)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="G45" s="1">
-        <f>(E45-H45)</f>
+      <c r="G46" s="1">
+        <f>(E46-H46)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H46" s="1">
         <v>3.8</v>
       </c>
-      <c r="I45" s="4">
-        <f t="shared" ref="I45:K46" si="4">(F45*1000)/B45</f>
+      <c r="I46" s="4">
+        <f t="shared" ref="I46:K47" si="4">(F46*1000)/B46</f>
         <v>497.92531120331955</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <f t="shared" si="4"/>
         <v>857.14285714285734</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K46" s="4">
         <f t="shared" si="4"/>
         <v>997.37532808398953</v>
       </c>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>10</v>
       </c>
-      <c r="B46" s="10">
-        <f>A46-C46</f>
+      <c r="B47" s="10">
+        <f>A47-C47</f>
         <v>6.1</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C47" s="10">
         <v>3.9</v>
       </c>
-      <c r="D46" s="10">
-        <f>A46</f>
+      <c r="D47" s="10">
+        <f>A47</f>
         <v>10</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>13.4</v>
       </c>
-      <c r="F46" s="10">
-        <f>(E46-H46)</f>
+      <c r="F47" s="10">
+        <f>(E47-H47)</f>
         <v>3.26</v>
       </c>
-      <c r="G46" s="10">
-        <f>(E46-H46)</f>
+      <c r="G47" s="10">
+        <f>(E47-H47)</f>
         <v>3.26</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <v>10.14</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <f t="shared" si="4"/>
         <v>534.4262295081968</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <f t="shared" si="4"/>
         <v>835.89743589743591</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <f t="shared" si="4"/>
         <v>1014</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="23"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="24"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="1" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="C50" s="16">
-        <v>25</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="14">
-        <f>C50*10^(-9)</f>
-        <v>2.5000000000000002E-8</v>
-      </c>
-      <c r="F50" s="12">
-        <f>1/E50</f>
-        <v>40000000</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="12">
-        <f>(1/(E50^2))*C53*10^(-9)</f>
-        <v>1599999.9999999998</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="16">
-        <v>400</v>
-      </c>
-      <c r="D51" s="16"/>
+        <v>6.2</v>
+      </c>
+      <c r="C51" s="17">
+        <v>25</v>
+      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="14">
         <f>C51*10^(-9)</f>
-        <v>4.0000000000000003E-7</v>
+        <v>2.5000000000000002E-8</v>
       </c>
       <c r="F51" s="12">
         <f>1/E51</f>
-        <v>2500000</v>
+        <v>40000000</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="12">
         <f>(1/(E51^2))*C54*10^(-9)</f>
+        <v>1599999.9999999998</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="17">
+        <v>400</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="14">
+        <f>C52*10^(-9)</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="F52" s="12">
+        <f>1/E52</f>
+        <v>2500000</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="12">
+        <f>(1/(E52^2))*C55*10^(-9)</f>
         <v>124999.99999999999</v>
       </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C53" s="16">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="1"/>
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="17"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10">
         <v>0.2</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="18">
         <v>20</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>6.48</v>
-      </c>
-      <c r="D58" s="24">
-        <f>C58/$E$58</f>
-        <v>6.480000000000001E-2</v>
-      </c>
-      <c r="E58" s="12">
-        <v>100</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="15">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="C59" s="15">
-        <v>4.08</v>
-      </c>
-      <c r="D59" s="24">
-        <f t="shared" ref="D59:D65" si="5">C59/$E$58</f>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="E59" s="12"/>
+        <v>6.48</v>
+      </c>
+      <c r="D59" s="16">
+        <f>C59/$E$59</f>
+        <v>6.480000000000001E-2</v>
+      </c>
+      <c r="E59" s="12">
+        <v>100</v>
+      </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3665,17 +3853,17 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" s="15">
-        <v>4.8000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C60" s="15">
-        <v>2.56</v>
-      </c>
-      <c r="D60" s="24">
-        <f t="shared" si="5"/>
-        <v>2.5600000000000001E-2</v>
+        <v>4.08</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" ref="D60:D66" si="5">C60/$E$59</f>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -3688,17 +3876,17 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="15">
-        <v>7.2999999999999995E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C61" s="15">
-        <v>1.36</v>
-      </c>
-      <c r="D61" s="24">
+        <v>2.56</v>
+      </c>
+      <c r="D61" s="16">
         <f t="shared" si="5"/>
-        <v>1.3600000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -3711,107 +3899,126 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1.36</v>
+      </c>
+      <c r="D62" s="16">
+        <f t="shared" si="5"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B63" s="15">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C63" s="15">
         <v>0.96</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D63" s="16">
         <f t="shared" si="5"/>
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>6</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B64" s="15">
         <v>0.123</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C64" s="15">
         <v>0.64</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D64" s="16">
         <f t="shared" si="5"/>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>7</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B65" s="15">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C65" s="15">
         <v>0.4</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D65" s="16">
         <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>8</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B66" s="15">
         <v>0.17299999999999999</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C66" s="15">
         <v>0.32</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D66" s="16">
         <f t="shared" si="5"/>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <f>((-B61)/(LN((D61)/(D58))))/(100)</f>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <f>((-B62)/(LN((D62)/(D59))))/(100)</f>
         <v>4.6757830882182208E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <f>1/(17.81*1000)</f>
         <v>5.6148231330713081E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>31</v>
       </c>
-      <c r="B71">
-        <f>B70/E58</f>
+      <c r="B72">
+        <f>B71/E59</f>
         <v>5.6148231330713081E-7</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
         <v>28</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
@@ -3841,18 +4048,22 @@
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
     </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A56:R56"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A43:R43"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
